--- a/src/Tests/Templates/Orders.xlsx
+++ b/src/Tests/Templates/Orders.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DirectumDev\rx-util-importdata-net-core\src\Tests\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="17100" windowHeight="9855"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Приказы" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Приказы!$A$1:$Q$2</definedName>
-  </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="480" yWindow="105" windowWidth="17100" windowHeight="9855"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Приказы" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Приказы!$A$1:$Q$2</x:definedName>
+  </x:definedNames>
+  <x:calcPr calcId="152511" refMode="R1C1"/>
+</x:workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -174,98 +174,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
-  <si>
-    <t>Содержание</t>
-  </si>
-  <si>
-    <t>Примечание</t>
-  </si>
-  <si>
-    <t>Вид документа</t>
-  </si>
-  <si>
-    <t>Файл</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Состояние</t>
-  </si>
-  <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Подробности</t>
-  </si>
-  <si>
-    <t>Рег. №</t>
-  </si>
-  <si>
-    <t>Рег. Дата</t>
-  </si>
-  <si>
-    <t>Наша организация</t>
-  </si>
-  <si>
-    <t>Подразделение</t>
-  </si>
-  <si>
-    <t>Исполнитель</t>
-  </si>
-  <si>
-    <t>Подготовил</t>
-  </si>
-  <si>
-    <t>Подписал</t>
-  </si>
-  <si>
-    <t>Журнал регистрации</t>
-  </si>
-  <si>
-    <t>Регистрация</t>
-  </si>
-  <si>
-    <t>Отдел снабжения</t>
-  </si>
-  <si>
-    <t>Действующий</t>
-  </si>
-  <si>
-    <t>Прим</t>
-  </si>
-  <si>
-    <t>Зарегистрирован</t>
-  </si>
-  <si>
-    <t>Templates\TestDocs\testDoc.txt</t>
-  </si>
-  <si>
-    <t>ТехноСистемы ЗАО</t>
-  </si>
-  <si>
-    <t>Иванов Иван Иванович</t>
-  </si>
-  <si>
-    <t>Законов Сергей Юрьевич</t>
-  </si>
-  <si>
-    <t>Добрынин Никита</t>
-  </si>
-  <si>
-    <t>Загружен</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>17.05.2023</t>
-  </si>
-  <si>
-    <t>Приказ по основной деятельности</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+  <x:si>
+    <x:t>Содержание</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Примечание</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вид документа</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Файл</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Состояние</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Итог</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подробности</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Рег. №</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Рег. Дата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Наша организация</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подразделение</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Исполнитель</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подготовил</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подписал</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Журнал регистрации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Регистрация</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отдел снабжения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Действующий</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Прим</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Зарегистрирован</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Templates\TestDocs\testDoc.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ТехноСистемы ЗАО</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Иванов Иван Иванович</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Законов Сергей Юрьевич</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Добрынин Никита</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>17.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Приказ по основной деятельности</x:t>
+  </x:si>
+  <x:si>
+    <x:t>663</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Загружен частично</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.03.2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Сотрудник" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Сотрудник" с именем "Добрынин Никита". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -850,367 +863,367 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21" style="4" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="32.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="24">
-        <v>372</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44239</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="1">
-        <v>18</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2"/>
-      <c r="S2"/>
-    </row>
-    <row r="3" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-    </row>
-  </sheetData>
-  <sheetProtection sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:Q2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:dimension ref="A1:S22"/>
+  <x:sheetViews>
+    <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <x:pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <x:cols>
+    <x:col min="1" max="1" width="11.85546875" style="3" customWidth="1"/>
+    <x:col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
+    <x:col min="3" max="3" width="21" style="4" customWidth="1"/>
+    <x:col min="4" max="4" width="22.85546875" style="4" customWidth="1"/>
+    <x:col min="5" max="5" width="21.28515625" style="4" customWidth="1"/>
+    <x:col min="6" max="6" width="21" style="4" customWidth="1"/>
+    <x:col min="7" max="7" width="48.7109375" style="5" customWidth="1"/>
+    <x:col min="8" max="8" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="23.42578125" style="5" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="21.28515625" style="1" customWidth="1"/>
+    <x:col min="11" max="11" width="17.85546875" style="1" customWidth="1"/>
+    <x:col min="12" max="12" width="32.140625" style="1" customWidth="1"/>
+    <x:col min="13" max="13" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="14" max="14" width="32.140625" style="1" customWidth="1"/>
+    <x:col min="15" max="16384" width="9.140625" style="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:19" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="A1" s="19" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1" s="19" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C1" s="19" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="19" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1" s="19" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F1" s="21" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G1" s="15" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H1" s="16" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I1" s="20" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J1" s="17" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K1" s="16" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L1" s="23" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M1" s="22" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="N1" s="22" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="O1" s="18" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="P1" s="18" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="Q1" s="18" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <x:c r="A2" s="24" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B2" s="2">
+        <x:v>44239</x:v>
+      </x:c>
+      <x:c r="C2" s="4" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D2" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E2" s="28" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F2" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G2" s="27" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H2" s="24" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I2" s="25" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K2" s="26" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="L2" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M2" s="1">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N2" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="O2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R2"/>
+      <x:c r="S2"/>
+    </x:row>
+    <x:row r="3" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A3" s="6"/>
+      <x:c r="B3" s="7"/>
+      <x:c r="C3" s="8"/>
+      <x:c r="D3" s="8"/>
+      <x:c r="E3" s="8"/>
+      <x:c r="F3" s="8"/>
+      <x:c r="G3" s="9"/>
+      <x:c r="H3" s="10"/>
+      <x:c r="I3" s="11"/>
+      <x:c r="K3" s="13"/>
+    </x:row>
+    <x:row r="4" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A4" s="14"/>
+      <x:c r="B4" s="7"/>
+      <x:c r="C4" s="8"/>
+      <x:c r="D4" s="8"/>
+      <x:c r="E4" s="8"/>
+      <x:c r="F4" s="8"/>
+      <x:c r="G4" s="9"/>
+      <x:c r="H4" s="9"/>
+      <x:c r="I4" s="9"/>
+    </x:row>
+    <x:row r="5" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A5" s="14"/>
+      <x:c r="B5" s="7"/>
+      <x:c r="C5" s="8"/>
+      <x:c r="D5" s="8"/>
+      <x:c r="E5" s="8"/>
+      <x:c r="F5" s="8"/>
+      <x:c r="G5" s="9"/>
+      <x:c r="H5" s="9"/>
+      <x:c r="I5" s="9"/>
+    </x:row>
+    <x:row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A6" s="14"/>
+      <x:c r="B6" s="7"/>
+      <x:c r="C6" s="8"/>
+      <x:c r="D6" s="8"/>
+      <x:c r="E6" s="8"/>
+      <x:c r="F6" s="8"/>
+      <x:c r="G6" s="9"/>
+      <x:c r="H6" s="9"/>
+      <x:c r="I6" s="9"/>
+    </x:row>
+    <x:row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A7" s="14"/>
+      <x:c r="B7" s="7"/>
+      <x:c r="C7" s="8"/>
+      <x:c r="D7" s="8"/>
+      <x:c r="E7" s="8"/>
+      <x:c r="F7" s="8"/>
+      <x:c r="G7" s="9"/>
+      <x:c r="H7" s="9"/>
+      <x:c r="I7" s="9"/>
+    </x:row>
+    <x:row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A8" s="14"/>
+      <x:c r="B8" s="7"/>
+      <x:c r="C8" s="8"/>
+      <x:c r="D8" s="8"/>
+      <x:c r="E8" s="8"/>
+      <x:c r="F8" s="8"/>
+      <x:c r="G8" s="9"/>
+      <x:c r="H8" s="9"/>
+      <x:c r="I8" s="9"/>
+    </x:row>
+    <x:row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A9" s="14"/>
+      <x:c r="B9" s="7"/>
+      <x:c r="C9" s="8"/>
+      <x:c r="D9" s="8"/>
+      <x:c r="E9" s="8"/>
+      <x:c r="F9" s="8"/>
+      <x:c r="G9" s="9"/>
+      <x:c r="H9" s="9"/>
+      <x:c r="I9" s="9"/>
+    </x:row>
+    <x:row r="10" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A10" s="14"/>
+      <x:c r="B10" s="7"/>
+      <x:c r="C10" s="8"/>
+      <x:c r="D10" s="8"/>
+      <x:c r="E10" s="8"/>
+      <x:c r="F10" s="8"/>
+      <x:c r="G10" s="9"/>
+      <x:c r="H10" s="9"/>
+      <x:c r="I10" s="9"/>
+    </x:row>
+    <x:row r="11" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A11" s="14"/>
+      <x:c r="B11" s="7"/>
+      <x:c r="C11" s="8"/>
+      <x:c r="D11" s="8"/>
+      <x:c r="E11" s="8"/>
+      <x:c r="F11" s="8"/>
+      <x:c r="G11" s="9"/>
+      <x:c r="H11" s="9"/>
+      <x:c r="I11" s="9"/>
+    </x:row>
+    <x:row r="12" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A12" s="14"/>
+      <x:c r="B12" s="7"/>
+      <x:c r="C12" s="8"/>
+      <x:c r="D12" s="8"/>
+      <x:c r="E12" s="8"/>
+      <x:c r="F12" s="8"/>
+      <x:c r="G12" s="9"/>
+      <x:c r="H12" s="9"/>
+      <x:c r="I12" s="9"/>
+    </x:row>
+    <x:row r="13" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A13" s="14"/>
+      <x:c r="B13" s="7"/>
+      <x:c r="C13" s="8"/>
+      <x:c r="D13" s="8"/>
+      <x:c r="E13" s="8"/>
+      <x:c r="F13" s="8"/>
+      <x:c r="G13" s="9"/>
+      <x:c r="H13" s="9"/>
+      <x:c r="I13" s="9"/>
+    </x:row>
+    <x:row r="14" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A14" s="14"/>
+      <x:c r="B14" s="7"/>
+      <x:c r="C14" s="8"/>
+      <x:c r="D14" s="8"/>
+      <x:c r="E14" s="8"/>
+      <x:c r="F14" s="8"/>
+      <x:c r="G14" s="9"/>
+      <x:c r="H14" s="9"/>
+      <x:c r="I14" s="9"/>
+    </x:row>
+    <x:row r="15" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A15" s="14"/>
+      <x:c r="B15" s="7"/>
+      <x:c r="C15" s="8"/>
+      <x:c r="D15" s="8"/>
+      <x:c r="E15" s="8"/>
+      <x:c r="F15" s="8"/>
+      <x:c r="G15" s="9"/>
+      <x:c r="H15" s="9"/>
+      <x:c r="I15" s="9"/>
+    </x:row>
+    <x:row r="16" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A16" s="14"/>
+      <x:c r="B16" s="7"/>
+      <x:c r="C16" s="8"/>
+      <x:c r="D16" s="8"/>
+      <x:c r="E16" s="8"/>
+      <x:c r="F16" s="8"/>
+      <x:c r="G16" s="9"/>
+      <x:c r="H16" s="9"/>
+      <x:c r="I16" s="9"/>
+    </x:row>
+    <x:row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A17" s="14"/>
+      <x:c r="B17" s="7"/>
+      <x:c r="C17" s="8"/>
+      <x:c r="D17" s="8"/>
+      <x:c r="E17" s="8"/>
+      <x:c r="F17" s="8"/>
+      <x:c r="G17" s="9"/>
+      <x:c r="H17" s="9"/>
+      <x:c r="I17" s="9"/>
+    </x:row>
+    <x:row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A18" s="14"/>
+      <x:c r="B18" s="7"/>
+      <x:c r="C18" s="8"/>
+      <x:c r="D18" s="8"/>
+      <x:c r="E18" s="8"/>
+      <x:c r="F18" s="8"/>
+      <x:c r="G18" s="9"/>
+      <x:c r="H18" s="9"/>
+      <x:c r="I18" s="9"/>
+    </x:row>
+    <x:row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A19" s="14"/>
+      <x:c r="B19" s="7"/>
+      <x:c r="C19" s="8"/>
+      <x:c r="D19" s="8"/>
+      <x:c r="E19" s="8"/>
+      <x:c r="F19" s="8"/>
+      <x:c r="G19" s="9"/>
+      <x:c r="H19" s="9"/>
+      <x:c r="I19" s="9"/>
+    </x:row>
+    <x:row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A20" s="14"/>
+      <x:c r="B20" s="7"/>
+      <x:c r="C20" s="8"/>
+      <x:c r="D20" s="8"/>
+      <x:c r="E20" s="8"/>
+      <x:c r="F20" s="8"/>
+      <x:c r="G20" s="9"/>
+      <x:c r="H20" s="9"/>
+      <x:c r="I20" s="9"/>
+    </x:row>
+    <x:row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A21" s="14"/>
+      <x:c r="B21" s="7"/>
+      <x:c r="C21" s="8"/>
+      <x:c r="D21" s="8"/>
+      <x:c r="E21" s="8"/>
+      <x:c r="F21" s="8"/>
+      <x:c r="G21" s="9"/>
+      <x:c r="H21" s="9"/>
+      <x:c r="I21" s="9"/>
+    </x:row>
+    <x:row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <x:c r="A22" s="14"/>
+      <x:c r="B22" s="7"/>
+      <x:c r="C22" s="8"/>
+      <x:c r="D22" s="8"/>
+      <x:c r="E22" s="8"/>
+      <x:c r="F22" s="8"/>
+      <x:c r="G22" s="9"/>
+      <x:c r="H22" s="9"/>
+      <x:c r="I22" s="9"/>
+    </x:row>
+  </x:sheetData>
+  <x:sheetProtection sort="0" autoFilter="0"/>
+  <x:autoFilter ref="A1:Q2"/>
+  <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <x:legacyDrawing r:id="rId2"/>
+</x:worksheet>
 </file>